--- a/StructureDefinition-NatlDir-Practitioner.xlsx
+++ b/StructureDefinition-NatlDir-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T11:12:19-04:00</t>
+    <t>2021-10-29T10:58:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NatlDir-Practitioner.xlsx
+++ b/StructureDefinition-NatlDir-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T10:58:57-04:00</t>
+    <t>2021-11-17T10:46:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -637,7 +637,7 @@
     <t>An identifier that applies to this person in this role.</t>
   </si>
   <si>
-    <t>NPI must be supported as the identifier system in the US, Tax id is allowed, Local id is allowed in addition to an another identifier supplied by a jurisdictional authority such as a practitioner's *Drug Enforcement Administration (DEA)* number.</t>
+    <t>NPI must be supported as the identifier system in the US, Tax id is allowed, Local id is allowed in addition to another identifier supplied by a jurisdictional authority such as a practitioner's *Drug Enforcement Administration (DEA)* number.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
